--- a/FichierEx.xlsx
+++ b/FichierEx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles ibog\Desktop\dossier_devoir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles ibog\Desktop\devoir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,30 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>NOM</t>
-  </si>
-  <si>
-    <t>PRENOM</t>
-  </si>
-  <si>
-    <t>SEXE</t>
-  </si>
-  <si>
-    <t>MATIP</t>
-  </si>
-  <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>azert</t>
-  </si>
-  <si>
-    <t>toto</t>
+    <t>ZEDFRT</t>
   </si>
 </sst>
 </file>
@@ -100,18 +79,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A2:C5" totalsRowShown="0">
-  <autoFilter ref="A2:C5"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="NOM"/>
-    <tableColumn id="2" name="PRENOM"/>
-    <tableColumn id="3" name="SEXE"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,43 +355,12 @@
     <col min="1" max="3" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>